--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1881450.768689675</v>
+        <v>1878905.58261639</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>168.4276127076254</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>96.36136743208931</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.9118647420297</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>208.4621681245751</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0679947072585</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.06325453686356</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.2229739853304</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>198.5622246230541</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.878467376336</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365953</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041041741</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5981994227929</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740334</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362945</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.29389441465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117928</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2527.020189293348</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2308.385522265411</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.385522265411</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.322634921841</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.553979651726</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>1565.148859551602</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675915</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2549.605662020992</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2330.970994993054</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2077.209209631146</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1746.146322287575</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.146322287575</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>618.0603549281328</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>200.9725731645603</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8675491160735</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>625.0058556773363</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1845.594268968958</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2395.030277721681</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>357.4478253395142</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5116424116073</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5116424116073</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5116424116073</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5116424116073</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5116424116073</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>853.3097596200586</v>
+        <v>539.096290169754</v>
       </c>
       <c r="W10" t="n">
-        <v>853.3097596200586</v>
+        <v>539.096290169754</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>539.096290169754</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>539.096290169754</v>
       </c>
     </row>
     <row r="11">
@@ -5027,28 +5027,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826423995</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826423995</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600064</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.762841562096</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.762841562096</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,28 +5756,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04072454780376</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>75.00812759551718</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>110.940598798421</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431482</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372229181</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580647</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9259388694759707</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459447</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462226</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.2652634529496</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194098</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868552</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868552</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583911</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.691380806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682811</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682738</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682738</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.53656668272</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682727</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825962</v>
+        <v>-328546.1780825959</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319484</v>
+        <v>261421.7011319485</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381538</v>
+        <v>105617.8950381534</v>
       </c>
       <c r="E6" t="n">
-        <v>-333028.8029806425</v>
+        <v>-333063.5409060778</v>
       </c>
       <c r="F6" t="n">
-        <v>438023.8884001638</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="G6" t="n">
-        <v>438023.8884001641</v>
+        <v>437989.1504747281</v>
       </c>
       <c r="H6" t="n">
-        <v>438023.8884001641</v>
+        <v>437989.1504747281</v>
       </c>
       <c r="I6" t="n">
-        <v>438023.8884001639</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.6692075709</v>
+        <v>261565.9312821353</v>
       </c>
       <c r="K6" t="n">
-        <v>438023.8884001638</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="L6" t="n">
-        <v>438023.8884001643</v>
+        <v>437989.1504747281</v>
       </c>
       <c r="M6" t="n">
-        <v>313815.3776921054</v>
+        <v>313780.63976667</v>
       </c>
       <c r="N6" t="n">
-        <v>438023.8884001643</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="O6" t="n">
-        <v>438023.888400164</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="P6" t="n">
-        <v>438023.8884001641</v>
+        <v>437989.1504747283</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.988100101346106</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>273.3697332463797</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>136.2257785817984</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.2208734961079</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>28.34771810171296</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>73.87698536525534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>287.977629538352</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>19.48912268390214</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.57541870077392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-2.910607430388206e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256108</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.385831806051</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.4894619148576</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>271.3053123348933</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35267,7 +35267,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>220.7281013512481</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>180.6240912112805</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
